--- a/bar_4in1/template.xlsx
+++ b/bar_4in1/template.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\杂项\draw_tools\bar_4in1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校事务\draw_tools\bar_4in1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25040D8E-7AB9-4A75-981F-B35807A6ABCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F709BC-B6BD-4A6E-89E7-B5F9787334AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6465" yWindow="11025" windowWidth="15330" windowHeight="11490" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Write-30" sheetId="1" r:id="rId1"/>
-    <sheet name="Write-70" sheetId="2" r:id="rId2"/>
-    <sheet name="totalios-30" sheetId="8" r:id="rId3"/>
-    <sheet name="totalios-70" sheetId="9" r:id="rId4"/>
-    <sheet name="真机实验数据-30" sheetId="4" r:id="rId5"/>
-    <sheet name="真机实验数据-70" sheetId="10" r:id="rId6"/>
-    <sheet name="algorithmic-space-overhead" sheetId="7" r:id="rId7"/>
-    <sheet name="draw_config" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="Write-70" sheetId="2" r:id="rId3"/>
+    <sheet name="totalios-30" sheetId="8" r:id="rId4"/>
+    <sheet name="totalios-70" sheetId="9" r:id="rId5"/>
+    <sheet name="真机实验数据-30" sheetId="4" r:id="rId6"/>
+    <sheet name="真机实验数据-70" sheetId="10" r:id="rId7"/>
+    <sheet name="algorithmic-space-overhead" sheetId="7" r:id="rId8"/>
+    <sheet name="draw_config" sheetId="3" r:id="rId9"/>
+    <sheet name="subfig_title" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="83">
   <si>
     <t xml:space="preserve">Triggered wear-leveling </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +324,42 @@
   </si>
   <si>
     <t>Parity modification 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write-30/RAID-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write-70/RAID-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write-30/RAID-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write-70/RAID-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大图编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小图编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latex math env test: $\alpha_{x}$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,18 +954,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I179"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A127" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A166" activeCellId="11" sqref="A1 A16 A31 A46 A61 A76 A91 A106 A121 A136 A151 A166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" customWidth="1"/>
-    <col min="2" max="2" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -945,7 +982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -965,7 +1002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -988,7 +1025,7 @@
         <v>130.02069499999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1048,7 @@
         <v>62.143531400000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1034,7 +1071,7 @@
         <v>51.414712999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1094,7 @@
         <v>99.979151000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1117,7 @@
         <v>55.076538900000003</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1103,7 +1140,7 @@
         <v>54.984434</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1163,7 @@
         <v>133.67927900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1186,7 @@
         <v>68.769985000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1172,7 +1209,7 @@
         <v>40.593142999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1232,7 @@
         <v>159.40548699999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1255,7 @@
         <v>59.128479200000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1241,7 +1278,7 @@
         <v>68.187652</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1258,7 +1295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1278,7 +1315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1301,7 +1338,7 @@
         <v>283.01904400000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1324,7 +1361,7 @@
         <v>100.586783</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1347,7 +1384,7 @@
         <v>64.642863000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +1407,7 @@
         <v>375.94335100000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1430,7 @@
         <v>102.4193018</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1416,7 +1453,7 @@
         <v>63.893031999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1439,7 +1476,7 @@
         <v>228.02140199999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1462,7 +1499,7 @@
         <v>91.866112999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1522,7 @@
         <v>63.772061999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1545,7 @@
         <v>291.8313071</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1568,7 @@
         <v>104.12500900000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1554,7 +1591,7 @@
         <v>71.882530000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -1591,7 +1628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1614,7 +1651,7 @@
         <v>10852</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1637,7 +1674,7 @@
         <v>8297</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1660,7 +1697,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1720,7 @@
         <v>15318</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1706,7 +1743,7 @@
         <v>14490</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1729,7 +1766,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1752,7 +1789,7 @@
         <v>11445</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1775,7 +1812,7 @@
         <v>6892</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -1798,7 +1835,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1821,7 +1858,7 @@
         <v>10037</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1844,7 +1881,7 @@
         <v>6005</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1867,7 +1904,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1884,7 +1921,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>24</v>
       </c>
@@ -1904,7 +1941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1927,7 +1964,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -1950,7 +1987,7 @@
         <v>12754</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -1973,7 +2010,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1996,7 +2033,7 @@
         <v>14048</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2019,7 +2056,7 @@
         <v>12474</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2042,7 +2079,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2065,7 +2102,7 @@
         <v>21024</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2088,7 +2125,7 @@
         <v>18218</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -2111,7 +2148,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2134,7 +2171,7 @@
         <v>31314</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2157,7 +2194,7 @@
         <v>19604</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -2180,7 +2217,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -2197,7 +2234,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>24</v>
       </c>
@@ -2217,7 +2254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2240,7 +2277,7 @@
         <v>216611</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2263,7 +2300,7 @@
         <v>214056</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2286,7 +2323,7 @@
         <v>208017</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2346,7 @@
         <v>221077</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2332,7 +2369,7 @@
         <v>220249</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -2355,7 +2392,7 @@
         <v>208328</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -2378,7 +2415,7 @@
         <v>262393</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -2401,7 +2438,7 @@
         <v>253287</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -2424,7 +2461,7 @@
         <v>244003</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2449,7 +2486,7 @@
         <v>259577</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2511,7 @@
         <v>251513</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -2499,7 +2536,7 @@
         <v>244499</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2509,7 +2546,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -2530,7 +2567,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>24</v>
       </c>
@@ -2550,7 +2587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2573,7 +2610,7 @@
         <v>223959</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -2596,7 +2633,7 @@
         <v>218513</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -2619,7 +2656,7 @@
         <v>208343</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2642,7 +2679,7 @@
         <v>219807</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +2702,7 @@
         <v>218233</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -2688,7 +2725,7 @@
         <v>208349</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2711,7 +2748,7 @@
         <v>292996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2734,7 +2771,7 @@
         <v>282831</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2757,7 +2794,7 @@
         <v>246223</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2782,7 +2819,7 @@
         <v>312168</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2807,7 +2844,7 @@
         <v>284716</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -2832,7 +2869,7 @@
         <v>246957</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2842,7 +2879,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
@@ -2859,7 +2896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>24</v>
       </c>
@@ -2879,7 +2916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2910,7 +2947,7 @@
         <v>5.0099025441921234E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -2941,7 +2978,7 @@
         <v>3.8760885002055538E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -2972,7 +3009,7 @@
         <v>1.0854882052909137E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3003,7 +3040,7 @@
         <v>6.9288076100182283E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -3034,7 +3071,7 @@
         <v>6.5789174979228052E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -3065,7 +3102,7 @@
         <v>1.2331515686801582E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -3096,7 +3133,7 @@
         <v>4.3617779437713659E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -3127,7 +3164,7 @@
         <v>2.7210239767536431E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -3158,7 +3195,7 @@
         <v>9.221198100023361E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -3189,7 +3226,7 @@
         <v>3.8666753988219296E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3220,7 +3257,7 @@
         <v>2.387550544107064E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -3251,7 +3288,7 @@
         <v>1.0216810702702261E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>56</v>
       </c>
@@ -3268,7 +3305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>24</v>
       </c>
@@ -3288,7 +3325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -3319,7 +3356,7 @@
         <v>8.1264874374327445E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -3350,7 +3387,7 @@
         <v>5.8367236731910688E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -3381,7 +3418,7 @@
         <v>1.2402624518222355E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -3412,7 +3449,7 @@
         <v>6.3910612491867871E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -3443,7 +3480,7 @@
         <v>5.7159091429802092E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -3474,7 +3511,7 @@
         <v>1.2431065183898171E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -3505,7 +3542,7 @@
         <v>7.1755245805403489E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -3536,7 +3573,7 @@
         <v>6.4413024032019123E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -3567,7 +3604,7 @@
         <v>9.0771373917140161E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -3598,7 +3635,7 @@
         <v>0.10031137080033828</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3629,7 +3666,7 @@
         <v>6.8854577895165706E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -3660,7 +3697,7 @@
         <v>1.0034135497272804E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3671,7 +3708,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -3692,7 +3729,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>24</v>
       </c>
@@ -3712,7 +3749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3737,7 +3774,7 @@
         <v>0.87209999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3762,7 +3799,7 @@
         <v>0.71589999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3787,7 +3824,7 @@
         <v>0.76190000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -3812,7 +3849,7 @@
         <v>0.88219999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3837,7 +3874,7 @@
         <v>0.7208</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -3862,7 +3899,7 @@
         <v>0.75280000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -3887,7 +3924,7 @@
         <v>0.88139999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -3912,7 +3949,7 @@
         <v>0.71220000000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3937,7 +3974,7 @@
         <v>0.76070000000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -3962,7 +3999,7 @@
         <v>0.87450000000000006</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3987,7 +4024,7 @@
         <v>0.72889999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>32</v>
       </c>
@@ -4012,7 +4049,7 @@
         <v>0.76490000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -4021,7 +4058,7 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>57</v>
       </c>
@@ -4042,7 +4079,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>24</v>
       </c>
@@ -4062,7 +4099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -4086,7 +4123,7 @@
         <v>0.28920000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -4110,7 +4147,7 @@
         <v>0.12989999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -4134,7 +4171,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -4158,7 +4195,7 @@
         <v>0.28220000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -4182,7 +4219,7 @@
         <v>0.1308</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -4206,7 +4243,7 @@
         <v>0.23280000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -4230,7 +4267,7 @@
         <v>0.28439999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -4254,7 +4291,7 @@
         <v>0.1229</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -4278,7 +4315,7 @@
         <v>0.23769999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -4302,7 +4339,7 @@
         <v>0.28449999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4326,7 +4363,7 @@
         <v>0.12889999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -4350,7 +4387,7 @@
         <v>0.2349</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -4367,7 +4404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>24</v>
@@ -4388,7 +4425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -4413,7 +4450,7 @@
         <v>5.0361200000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -4438,7 +4475,7 @@
         <v>362.26055000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -4463,7 +4500,7 @@
         <v>10.471500000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -4488,7 +4525,7 @@
         <v>8.1094419999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -4513,7 +4550,7 @@
         <v>382.85899999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -4538,7 +4575,7 @@
         <v>1.60775</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -4563,7 +4600,7 @@
         <v>4.4303129999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -4588,7 +4625,7 @@
         <v>380.22559000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>30</v>
       </c>
@@ -4613,7 +4650,7 @@
         <v>3.9110149999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -4638,7 +4675,7 @@
         <v>18.518979999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -4663,7 +4700,7 @@
         <v>408.48090000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -4688,7 +4725,7 @@
         <v>10.818569999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>58</v>
       </c>
@@ -4705,7 +4742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" t="s">
         <v>24</v>
@@ -4726,7 +4763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -4751,7 +4788,7 @@
         <v>5.3925300000000007</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -4776,7 +4813,7 @@
         <v>348.38329999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4801,7 +4838,7 @@
         <v>8.9027400000000014</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -4826,7 +4863,7 @@
         <v>5.8236530000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -4851,7 +4888,7 @@
         <v>340.16950000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>31</v>
       </c>
@@ -4876,7 +4913,7 @@
         <v>15.384816000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -4901,7 +4938,7 @@
         <v>3.1683850000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -4926,7 +4963,7 @@
         <v>362.22274000000004</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>30</v>
       </c>
@@ -4951,7 +4988,7 @@
         <v>2.7904140000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -4976,7 +5013,7 @@
         <v>5.7579720000000005</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -5001,7 +5038,7 @@
         <v>401.41574000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -5033,7 +5070,580 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFB1F5F-2F42-42D4-8198-BB0176E7E8A1}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DCFAD6-1939-4B7B-B8B1-4AC3E07323C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T179"/>
   <sheetViews>
@@ -5041,12 +5651,12 @@
       <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -5057,7 +5667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -5077,7 +5687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5100,7 +5710,7 @@
         <v>178.94</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -5123,7 +5733,7 @@
         <v>162.0899</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -5146,7 +5756,7 @@
         <v>50.182400000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5170,7 +5780,7 @@
       </c>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5193,7 +5803,7 @@
         <v>126.7265</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -5216,7 +5826,7 @@
         <v>51.147799999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5239,7 +5849,7 @@
         <v>154.2149</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5262,7 +5872,7 @@
         <v>116.2079</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -5285,7 +5895,7 @@
         <v>56.8444</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -5308,7 +5918,7 @@
         <v>189.00040000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -5331,7 +5941,7 @@
         <v>59.353000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -5354,7 +5964,7 @@
         <v>25.9495</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -5365,7 +5975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -5385,7 +5995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5408,7 +6018,7 @@
         <v>153.95170000000101</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -5431,7 +6041,7 @@
         <v>90.239399999999094</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -5454,7 +6064,7 @@
         <v>28.490500000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5477,7 +6087,7 @@
         <v>181.00257300000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -5500,7 +6110,7 @@
         <v>10.718400000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5523,7 +6133,7 @@
         <v>26.739608</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -5546,7 +6156,7 @@
         <v>139.06720000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -5569,7 +6179,7 @@
         <v>108.33999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -5592,7 +6202,7 @@
         <v>29.533791999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -5615,7 +6225,7 @@
         <v>49.274374000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -5638,7 +6248,7 @@
         <v>115.983400000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -5661,7 +6271,7 @@
         <v>34.897495999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -5672,7 +6282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -5692,7 +6302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -5715,7 +6325,7 @@
         <v>58864</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -5738,7 +6348,7 @@
         <v>47753</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -5761,7 +6371,7 @@
         <v>33244</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -5784,7 +6394,7 @@
         <v>90918</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -5807,7 +6417,7 @@
         <v>68239</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -5830,7 +6440,7 @@
         <v>25364</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -5853,7 +6463,7 @@
         <v>61752</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -5876,7 +6486,7 @@
         <v>55394</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -5899,7 +6509,7 @@
         <v>46604</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -5922,7 +6532,7 @@
         <v>210415</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -5945,7 +6555,7 @@
         <v>219518</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -5968,7 +6578,7 @@
         <v>93708</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5979,7 +6589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>24</v>
       </c>
@@ -5999,7 +6609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -6022,7 +6632,7 @@
         <v>49314</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -6045,7 +6655,7 @@
         <v>50808</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -6068,7 +6678,7 @@
         <v>36439</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -6091,7 +6701,7 @@
         <v>82428</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -6114,7 +6724,7 @@
         <v>51504</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -6137,7 +6747,7 @@
         <v>17004</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -6160,7 +6770,7 @@
         <v>53237</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -6183,7 +6793,7 @@
         <v>50649</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -6206,7 +6816,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -6229,7 +6839,7 @@
         <v>161720</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -6252,7 +6862,7 @@
         <v>136013</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -6275,7 +6885,7 @@
         <v>83103</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -6286,7 +6896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>24</v>
       </c>
@@ -6306,7 +6916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -6329,7 +6939,7 @@
         <v>515389</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -6352,7 +6962,7 @@
         <v>504278</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -6375,7 +6985,7 @@
         <v>489769</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -6398,7 +7008,7 @@
         <v>547443</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -6421,7 +7031,7 @@
         <v>524764</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -6444,7 +7054,7 @@
         <v>481889</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -6467,7 +7077,7 @@
         <v>879509</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -6490,7 +7100,7 @@
         <v>866793</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -6513,7 +7123,7 @@
         <v>849213</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -6538,7 +7148,7 @@
         <v>1176835</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -6563,7 +7173,7 @@
         <v>1195041</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -6588,7 +7198,7 @@
         <v>943421</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -6598,7 +7208,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -6609,7 +7219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>24</v>
       </c>
@@ -6629,7 +7239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -6652,7 +7262,7 @@
         <v>505839</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -6675,7 +7285,7 @@
         <v>507333</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -6698,7 +7308,7 @@
         <v>492964</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -6721,7 +7331,7 @@
         <v>538953</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -6744,7 +7354,7 @@
         <v>508029</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -6767,7 +7377,7 @@
         <v>473529</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -6790,7 +7400,7 @@
         <v>924231</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -6813,7 +7423,7 @@
         <v>912697</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -6836,7 +7446,7 @@
         <v>890637</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -6861,7 +7471,7 @@
         <v>1289860</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -6886,7 +7496,7 @@
         <v>1247549</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -6911,7 +7521,7 @@
         <v>1015919</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
@@ -6922,7 +7532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>24</v>
       </c>
@@ -6942,7 +7552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -6973,7 +7583,7 @@
         <v>0.11421275968249225</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -7004,7 +7614,7 @@
         <v>9.4695782881664484E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -7035,7 +7645,7 @@
         <v>6.7876897067801353E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -7066,7 +7676,7 @@
         <v>0.16607756423956466</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -7097,7 +7707,7 @@
         <v>0.13003750257258501</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -7128,7 +7738,7 @@
         <v>5.2634527868451034E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -7159,7 +7769,7 @@
         <v>7.0211902322773273E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -7190,7 +7800,7 @@
         <v>6.39068381955092E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -7221,7 +7831,7 @@
         <v>5.4879046835128523E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -7252,7 +7862,7 @@
         <v>0.17879736751541211</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -7283,7 +7893,7 @@
         <v>0.18369076876860291</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -7314,7 +7924,7 @@
         <v>9.9327871650090466E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -7324,7 +7934,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>56</v>
       </c>
@@ -7335,7 +7945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>24</v>
       </c>
@@ -7355,7 +7965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -7386,7 +7996,7 @@
         <v>9.7489517415620383E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -7417,7 +8027,7 @@
         <v>0.10014724056980326</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -7448,7 +8058,7 @@
         <v>7.3918176580845665E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -7479,7 +8089,7 @@
         <v>0.15294098001124401</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -7510,7 +8120,7 @@
         <v>0.10138003932846354</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -7541,7 +8151,7 @@
         <v>3.590909954828532E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -7572,7 +8182,7 @@
         <v>5.7601400515671947E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -7603,7 +8213,7 @@
         <v>5.549377285123102E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -7634,7 +8244,7 @@
         <v>4.9418562220073944E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -7665,7 +8275,7 @@
         <v>0.12537794799435598</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -7696,7 +8306,7 @@
         <v>0.10902417460155873</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -7727,7 +8337,7 @@
         <v>8.1800812860080382E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -7737,7 +8347,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -7754,7 +8364,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>24</v>
       </c>
@@ -7774,7 +8384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -7806,7 +8416,7 @@
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -7838,7 +8448,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -7870,7 +8480,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -7902,7 +8512,7 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -7934,7 +8544,7 @@
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -7966,7 +8576,7 @@
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -7998,7 +8608,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -8030,7 +8640,7 @@
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -8062,7 +8672,7 @@
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -8094,7 +8704,7 @@
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -8126,7 +8736,7 @@
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>32</v>
       </c>
@@ -8158,7 +8768,7 @@
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -8175,7 +8785,7 @@
       <c r="Q135" s="6"/>
       <c r="R135" s="6"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>57</v>
       </c>
@@ -8200,7 +8810,7 @@
       <c r="Q136" s="6"/>
       <c r="R136" s="6"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>24</v>
       </c>
@@ -8228,7 +8838,7 @@
       <c r="Q137" s="6"/>
       <c r="R137" s="6"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -8260,7 +8870,7 @@
       <c r="Q138" s="6"/>
       <c r="R138" s="6"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -8292,7 +8902,7 @@
       <c r="Q139" s="6"/>
       <c r="R139" s="6"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -8324,7 +8934,7 @@
       <c r="Q140" s="6"/>
       <c r="R140" s="6"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -8356,7 +8966,7 @@
       <c r="Q141" s="6"/>
       <c r="R141" s="6"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -8388,7 +8998,7 @@
       <c r="Q142" s="6"/>
       <c r="R142" s="6"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -8420,7 +9030,7 @@
       <c r="Q143" s="6"/>
       <c r="R143" s="6"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -8452,7 +9062,7 @@
       <c r="Q144" s="6"/>
       <c r="R144" s="6"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -8484,7 +9094,7 @@
       <c r="Q145" s="6"/>
       <c r="R145" s="6"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -8516,7 +9126,7 @@
       <c r="Q146" s="6"/>
       <c r="R146" s="6"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -8548,7 +9158,7 @@
       <c r="Q147" s="6"/>
       <c r="R147" s="6"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -8580,7 +9190,7 @@
       <c r="Q148" s="6"/>
       <c r="R148" s="6"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -8612,7 +9222,7 @@
       <c r="Q149" s="6"/>
       <c r="R149" s="6"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -8623,7 +9233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>24</v>
@@ -8644,7 +9254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -8667,7 +9277,7 @@
         <v>3.6692</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -8690,7 +9300,7 @@
         <v>339.35700000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -8713,7 +9323,7 @@
         <v>10.065</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -8736,7 +9346,7 @@
         <v>6.3035319999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -8759,7 +9369,7 @@
         <v>350.69</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -8782,7 +9392,7 @@
         <v>4.5525000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -8805,7 +9415,7 @@
         <v>2.7548300000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -8828,7 +9438,7 @@
         <v>358.38690000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>30</v>
       </c>
@@ -8851,7 +9461,7 @@
         <v>8.8575649999999992</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -8874,7 +9484,7 @@
         <v>11.123799999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -8897,7 +9507,7 @@
         <v>365.61900000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -8920,7 +9530,7 @@
         <v>10.198700000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>58</v>
       </c>
@@ -8931,7 +9541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" t="s">
         <v>24</v>
@@ -8952,7 +9562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -8977,7 +9587,7 @@
         <v>4.9023000000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -9002,7 +9612,7 @@
         <v>332.94200000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -9027,7 +9637,7 @@
         <v>8.0934000000000008</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -9052,7 +9662,7 @@
         <v>5.2942299999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -9077,7 +9687,7 @@
         <v>309.245</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>31</v>
       </c>
@@ -9102,7 +9712,7 @@
         <v>14.245200000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -9127,7 +9737,7 @@
         <v>2.88035</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -9152,7 +9762,7 @@
         <v>329.29340000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>30</v>
       </c>
@@ -9177,7 +9787,7 @@
         <v>2.53674</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -9202,7 +9812,7 @@
         <v>5.2345199999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -9227,7 +9837,7 @@
         <v>364.92340000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -9258,7 +9868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509ECD42-B44C-A84D-91E2-E687DE70A1C8}">
   <dimension ref="A1:I149"/>
   <sheetViews>
@@ -9266,14 +9876,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.69140625" customWidth="1"/>
-    <col min="2" max="2" width="18.3046875" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9290,7 +9900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -9310,7 +9920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -9333,7 +9943,7 @@
         <v>10852</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -9356,7 +9966,7 @@
         <v>8297</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -9379,7 +9989,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -9402,7 +10012,7 @@
         <v>15318</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9425,7 +10035,7 @@
         <v>14490</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -9448,7 +10058,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -9471,7 +10081,7 @@
         <v>11445</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -9494,7 +10104,7 @@
         <v>6892</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -9517,7 +10127,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -9540,7 +10150,7 @@
         <v>10037</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -9563,7 +10173,7 @@
         <v>6005</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -9586,7 +10196,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -9603,7 +10213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -9623,7 +10233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -9646,7 +10256,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -9669,7 +10279,7 @@
         <v>12754</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -9692,7 +10302,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -9715,7 +10325,7 @@
         <v>14048</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -9738,7 +10348,7 @@
         <v>12474</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -9761,7 +10371,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -9784,7 +10394,7 @@
         <v>21024</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -9807,7 +10417,7 @@
         <v>18218</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -9830,7 +10440,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -9853,7 +10463,7 @@
         <v>31314</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -9876,7 +10486,7 @@
         <v>19604</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -9899,12 +10509,12 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -9924,7 +10534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -9947,7 +10557,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -9970,7 +10580,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -9993,7 +10603,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -10016,7 +10626,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -10039,7 +10649,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -10062,7 +10672,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -10085,7 +10695,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -10108,7 +10718,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -10131,7 +10741,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -10154,7 +10764,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -10177,7 +10787,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -10200,12 +10810,12 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>24</v>
       </c>
@@ -10225,7 +10835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -10248,7 +10858,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -10271,7 +10881,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -10294,7 +10904,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -10317,7 +10927,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -10340,7 +10950,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -10363,7 +10973,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -10386,7 +10996,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -10409,7 +11019,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -10432,7 +11042,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -10455,7 +11065,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -10478,7 +11088,7 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -10501,12 +11111,12 @@
         <v>172015</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>24</v>
       </c>
@@ -10526,7 +11136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -10549,7 +11159,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -10572,7 +11182,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -10595,7 +11205,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -10618,7 +11228,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -10641,7 +11251,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -10664,7 +11274,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -10687,7 +11297,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -10710,7 +11320,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -10733,7 +11343,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -10756,7 +11366,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -10779,7 +11389,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -10802,12 +11412,12 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>24</v>
       </c>
@@ -10827,7 +11437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -10850,7 +11460,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -10873,7 +11483,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -10896,7 +11506,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -10919,7 +11529,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -10942,7 +11552,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -10965,7 +11575,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -10988,7 +11598,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -11011,7 +11621,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -11034,7 +11644,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -11057,7 +11667,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -11080,7 +11690,7 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -11103,12 +11713,12 @@
         <v>33744</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>24</v>
       </c>
@@ -11128,7 +11738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -11151,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -11174,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -11197,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -11220,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -11243,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -11266,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -11295,7 +11905,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -11324,7 +11934,7 @@
         <v>40636</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -11353,7 +11963,7 @@
         <v>35994</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -11382,7 +11992,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -11411,7 +12021,7 @@
         <v>39749</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -11440,12 +12050,12 @@
         <v>36242</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>24</v>
       </c>
@@ -11465,7 +12075,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -11488,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -11511,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -11534,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -11557,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -11580,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -11603,7 +12213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -11632,7 +12242,7 @@
         <v>66213</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -11661,7 +12271,7 @@
         <v>58854</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -11690,7 +12300,7 @@
         <v>38229</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -11719,7 +12329,7 @@
         <v>75095</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -11748,7 +12358,7 @@
         <v>59353</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -11777,12 +12387,12 @@
         <v>38720</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>24</v>
       </c>
@@ -11802,7 +12412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -11831,7 +12441,7 @@
         <v>216611</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -11860,7 +12470,7 @@
         <v>214056</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -11889,7 +12499,7 @@
         <v>208017</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -11918,7 +12528,7 @@
         <v>221077</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -11947,7 +12557,7 @@
         <v>220249</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -11976,7 +12586,7 @@
         <v>208328</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -12005,7 +12615,7 @@
         <v>262393</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -12034,7 +12644,7 @@
         <v>253287</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -12063,7 +12673,7 @@
         <v>244003</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -12092,7 +12702,7 @@
         <v>259577</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -12121,7 +12731,7 @@
         <v>251513</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>32</v>
       </c>
@@ -12150,12 +12760,12 @@
         <v>244499</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>24</v>
       </c>
@@ -12175,7 +12785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -12204,7 +12814,7 @@
         <v>223959</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -12233,7 +12843,7 @@
         <v>218513</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -12262,7 +12872,7 @@
         <v>208343</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -12291,7 +12901,7 @@
         <v>219807</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -12320,7 +12930,7 @@
         <v>218233</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -12349,7 +12959,7 @@
         <v>208349</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -12378,7 +12988,7 @@
         <v>292996</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -12407,7 +13017,7 @@
         <v>282831</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -12436,7 +13046,7 @@
         <v>246223</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -12465,7 +13075,7 @@
         <v>312168</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -12494,7 +13104,7 @@
         <v>284716</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -12529,7 +13139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD5ABFA-BC64-2B4A-B27E-0F9AE8A27B93}">
   <dimension ref="A1:I149"/>
   <sheetViews>
@@ -12537,12 +13147,12 @@
       <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.23046875" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12553,7 +13163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -12573,7 +13183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -12596,7 +13206,7 @@
         <v>58864</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -12619,7 +13229,7 @@
         <v>47753</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -12642,7 +13252,7 @@
         <v>33244</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -12665,7 +13275,7 @@
         <v>90918</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -12688,7 +13298,7 @@
         <v>68239</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -12711,7 +13321,7 @@
         <v>25364</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -12734,7 +13344,7 @@
         <v>61752</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -12757,7 +13367,7 @@
         <v>55394</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -12780,7 +13390,7 @@
         <v>46604</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -12803,7 +13413,7 @@
         <v>210415</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -12826,7 +13436,7 @@
         <v>219518</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -12849,7 +13459,7 @@
         <v>93708</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -12860,7 +13470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -12880,7 +13490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -12903,7 +13513,7 @@
         <v>49314</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -12926,7 +13536,7 @@
         <v>50808</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -12949,7 +13559,7 @@
         <v>36439</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -12972,7 +13582,7 @@
         <v>82428</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -12995,7 +13605,7 @@
         <v>51504</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -13018,7 +13628,7 @@
         <v>17004</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -13041,7 +13651,7 @@
         <v>53237</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -13064,7 +13674,7 @@
         <v>50649</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -13087,7 +13697,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -13110,7 +13720,7 @@
         <v>161720</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -13133,7 +13743,7 @@
         <v>136013</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -13156,12 +13766,12 @@
         <v>83103</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -13181,7 +13791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -13204,7 +13814,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -13227,7 +13837,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -13250,7 +13860,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -13273,7 +13883,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -13296,7 +13906,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -13319,7 +13929,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -13342,7 +13952,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -13365,7 +13975,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -13388,7 +13998,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -13411,7 +14021,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -13434,7 +14044,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -13457,12 +14067,12 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>24</v>
       </c>
@@ -13482,7 +14092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -13505,7 +14115,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -13528,7 +14138,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -13551,7 +14161,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -13574,7 +14184,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -13597,7 +14207,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -13620,7 +14230,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -13643,7 +14253,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -13666,7 +14276,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -13689,7 +14299,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -13712,7 +14322,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -13735,7 +14345,7 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -13758,12 +14368,12 @@
         <v>157045</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>24</v>
       </c>
@@ -13783,7 +14393,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -13806,7 +14416,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -13829,7 +14439,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -13852,7 +14462,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -13875,7 +14485,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -13898,7 +14508,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -13921,7 +14531,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -13944,7 +14554,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -13967,7 +14577,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -13990,7 +14600,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -14013,7 +14623,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -14036,7 +14646,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -14059,12 +14669,12 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>24</v>
       </c>
@@ -14084,7 +14694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -14107,7 +14717,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -14130,7 +14740,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -14153,7 +14763,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -14176,7 +14786,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -14199,7 +14809,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -14222,7 +14832,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -14245,7 +14855,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -14268,7 +14878,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -14291,7 +14901,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -14314,7 +14924,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -14337,7 +14947,7 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -14360,12 +14970,12 @@
         <v>299480</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>24</v>
       </c>
@@ -14385,7 +14995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -14408,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -14431,7 +15041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -14454,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -14477,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -14500,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -14523,7 +15133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -14552,7 +15162,7 @@
         <v>361232</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -14581,7 +15191,7 @@
         <v>354874</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -14610,7 +15220,7 @@
         <v>346084</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -14639,7 +15249,7 @@
         <v>509895</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -14668,7 +15278,7 @@
         <v>518998</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -14697,12 +15307,12 @@
         <v>393188</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>24</v>
       </c>
@@ -14722,7 +15332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -14745,7 +15355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -14768,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -14791,7 +15401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -14814,7 +15424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -14837,7 +15447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -14860,7 +15470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -14889,7 +15499,7 @@
         <v>414469</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -14918,7 +15528,7 @@
         <v>405523</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -14947,7 +15557,7 @@
         <v>390098</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -14976,7 +15586,7 @@
         <v>671615</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -15005,7 +15615,7 @@
         <v>655011</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -15034,12 +15644,12 @@
         <v>476291</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>24</v>
       </c>
@@ -15059,7 +15669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -15088,7 +15698,7 @@
         <v>515389</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -15117,7 +15727,7 @@
         <v>504278</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -15146,7 +15756,7 @@
         <v>489769</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -15175,7 +15785,7 @@
         <v>547443</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -15204,7 +15814,7 @@
         <v>524764</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -15233,7 +15843,7 @@
         <v>481889</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -15262,7 +15872,7 @@
         <v>879509</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -15291,7 +15901,7 @@
         <v>866793</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -15320,7 +15930,7 @@
         <v>849213</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -15349,7 +15959,7 @@
         <v>1176835</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -15378,7 +15988,7 @@
         <v>1195041</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>32</v>
       </c>
@@ -15407,12 +16017,12 @@
         <v>943421</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>24</v>
       </c>
@@ -15432,7 +16042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -15461,7 +16071,7 @@
         <v>505839</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -15490,7 +16100,7 @@
         <v>507333</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -15519,7 +16129,7 @@
         <v>492964</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -15548,7 +16158,7 @@
         <v>538953</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -15577,7 +16187,7 @@
         <v>508029</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -15606,7 +16216,7 @@
         <v>473529</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -15635,7 +16245,7 @@
         <v>924231</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -15664,7 +16274,7 @@
         <v>912697</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -15693,7 +16303,7 @@
         <v>890637</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -15722,7 +16332,7 @@
         <v>1289860</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -15751,7 +16361,7 @@
         <v>1247549</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -15786,7 +16396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8212B7-A778-EF4F-B4BC-D2417423FC74}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -15794,12 +16404,12 @@
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -15816,7 +16426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -15836,7 +16446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -15859,7 +16469,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -15882,7 +16492,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -15905,7 +16515,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -15928,7 +16538,7 @@
         <v>13.200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -15951,7 +16561,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -15974,7 +16584,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -15997,7 +16607,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -16020,7 +16630,7 @@
         <v>10.92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -16043,7 +16653,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -16066,7 +16676,7 @@
         <v>13.899999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -16089,7 +16699,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -16119,7 +16729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9418DBD2-FCAE-44E0-B2EB-B4E309F8202E}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -16127,17 +16737,17 @@
       <selection activeCell="A9" sqref="A9:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -16157,7 +16767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -16180,7 +16790,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -16203,7 +16813,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -16226,7 +16836,7 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -16249,7 +16859,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -16272,7 +16882,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -16295,7 +16905,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -16318,7 +16928,7 @@
         <v>15.049999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -16341,7 +16951,7 @@
         <v>11.72</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -16364,7 +16974,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -16387,7 +16997,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -16410,7 +17020,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -16439,7 +17049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3BBBFA-D470-F346-878F-6B0470721B0E}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -16447,13 +17057,13 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -16470,7 +17080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>4</v>
       </c>
@@ -16490,7 +17100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -16510,7 +17120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -16536,7 +17146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -16569,7 +17179,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -16608,20 +17218,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3046875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
@@ -16635,7 +17245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -16649,7 +17259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -16663,7 +17273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
@@ -16677,7 +17287,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -16691,7 +17301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -16705,7 +17315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
@@ -16719,7 +17329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -16733,7 +17343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -16747,7 +17357,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>32</v>
       </c>
@@ -16761,7 +17371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
@@ -16775,7 +17385,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>45</v>
       </c>
@@ -16789,7 +17399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>65</v>
       </c>
@@ -16803,7 +17413,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>71</v>
       </c>
@@ -16817,7 +17427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>66</v>
       </c>
@@ -16831,7 +17441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>72</v>
       </c>
@@ -16845,7 +17455,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>64</v>
       </c>
@@ -16859,7 +17469,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>73</v>
       </c>
@@ -16873,7 +17483,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>1</v>
       </c>
@@ -16887,7 +17497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>55</v>
       </c>
@@ -16901,7 +17511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
@@ -16915,7 +17525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
@@ -16929,7 +17539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>67</v>
       </c>
@@ -16943,7 +17553,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>4</v>
       </c>
@@ -16957,7 +17567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>5</v>
       </c>
@@ -16971,7 +17581,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>62</v>
       </c>
@@ -16985,7 +17595,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>6</v>
       </c>
@@ -16999,7 +17609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
@@ -17013,7 +17623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>63</v>
       </c>
@@ -17027,7 +17637,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -17041,7 +17651,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>69</v>
       </c>
@@ -17055,7 +17665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>70</v>
       </c>

--- a/bar_4in1/template.xlsx
+++ b/bar_4in1/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校事务\draw_tools\bar_4in1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F709BC-B6BD-4A6E-89E7-B5F9787334AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375F22FA-B6DB-42E7-B170-3BAF7A12A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6465" yWindow="11025" windowWidth="15330" windowHeight="11490" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Write-30" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="83">
   <si>
     <t xml:space="preserve">Triggered wear-leveling </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average response time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FS-Lazwl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,6 +356,10 @@
   </si>
   <si>
     <t>latex math env test: $\alpha_{x}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real Average response time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5072,10 +5072,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFB1F5F-2F42-42D4-8198-BB0176E7E8A1}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5086,13 +5086,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5100,10 +5100,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5111,10 +5111,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5122,10 +5122,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5133,10 +5133,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5144,10 +5144,10 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5155,10 +5155,10 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5166,10 +5166,10 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5177,10 +5177,10 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5188,10 +5188,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5199,10 +5199,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5210,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5221,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5232,10 +5232,10 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5243,10 +5243,10 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5254,10 +5254,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5265,10 +5265,10 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5276,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5287,10 +5287,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5298,10 +5298,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5309,10 +5309,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5320,10 +5320,10 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5331,10 +5331,10 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5342,10 +5342,10 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5353,10 +5353,10 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5364,10 +5364,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5375,10 +5375,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5386,10 +5386,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5397,10 +5397,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5408,10 +5408,10 @@
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5419,10 +5419,10 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5430,10 +5430,10 @@
         <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5441,10 +5441,10 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5452,10 +5452,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5463,10 +5463,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5474,10 +5474,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5485,10 +5485,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5496,10 +5496,10 @@
         <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5507,10 +5507,10 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5518,10 +5518,10 @@
         <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5529,10 +5529,10 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5540,10 +5540,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5551,10 +5551,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5562,10 +5562,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5573,10 +5573,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5584,10 +5584,10 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5595,10 +5595,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5606,10 +5606,10 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5617,10 +5617,54 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -10511,7 +10555,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -10812,7 +10856,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -11113,7 +11157,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -11414,7 +11458,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -11715,7 +11759,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -12052,7 +12096,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -13768,7 +13812,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -14069,7 +14113,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -14370,7 +14414,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -14671,7 +14715,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -14972,7 +15016,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -15309,7 +15353,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -16400,9 +16444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8212B7-A778-EF4F-B4BC-D2417423FC74}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16411,7 +16453,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -16494,7 +16536,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>10.56</v>
@@ -16563,7 +16605,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>10.52</v>
@@ -16632,7 +16674,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>10.68</v>
@@ -16701,7 +16743,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>10.52</v>
@@ -16733,9 +16775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9418DBD2-FCAE-44E0-B2EB-B4E309F8202E}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16744,7 +16784,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16815,7 +16855,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>10.36</v>
@@ -16884,7 +16924,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>10.36</v>
@@ -16953,7 +16993,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>10.84</v>
@@ -17022,7 +17062,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>10.48</v>
@@ -17122,7 +17162,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>9830.4</v>
@@ -17148,7 +17188,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <f t="shared" ref="B6:G6" si="0">1.2*B2*512*4</f>
@@ -17181,7 +17221,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:G7" si="1">1.2*B2*512*4+B2*4+$H$6</f>
@@ -17401,7 +17441,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>11</v>
@@ -17415,7 +17455,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>12</v>
@@ -17429,7 +17469,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>13</v>
@@ -17443,7 +17483,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>14</v>
@@ -17457,7 +17497,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>9</v>
@@ -17471,7 +17511,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>10</v>
@@ -17541,7 +17581,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>11</v>
@@ -17583,7 +17623,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>14</v>
@@ -17625,7 +17665,7 @@
     </row>
     <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>14</v>
@@ -17639,7 +17679,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>9</v>
@@ -17653,7 +17693,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>10</v>
@@ -17667,7 +17707,7 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>11</v>
